--- a/limno2023_ID_YYYY-MM-DD (DO NOT SAVE).xlsx
+++ b/limno2023_ID_YYYY-MM-DD (DO NOT SAVE).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjones20/Documents/Research/MFEdb/limnoEntryTool_TEMPLATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF81C00-46CE-A544-A405-F6723370E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409F521-01D9-A24E-8B2D-6E52C3FF8DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,18 +28,6 @@
     <t>PML</t>
   </si>
   <si>
-    <t>Outlet</t>
-  </si>
-  <si>
-    <t>Inlet1</t>
-  </si>
-  <si>
-    <t>Inlet2</t>
-  </si>
-  <si>
-    <t>Inlet3</t>
-  </si>
-  <si>
     <t>point</t>
   </si>
   <si>
@@ -106,21 +94,9 @@
     <t>ft</t>
   </si>
   <si>
-    <t>Inlet1_staffGauge</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
-    <t>Inlet2_staffGauge</t>
-  </si>
-  <si>
-    <t>Inlet3_staffGauge</t>
-  </si>
-  <si>
-    <t>Outlet_staffGauge</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
@@ -158,6 +134,30 @@
   </si>
   <si>
     <t>ions</t>
+  </si>
+  <si>
+    <t>stream1</t>
+  </si>
+  <si>
+    <t>stream2</t>
+  </si>
+  <si>
+    <t>stream3</t>
+  </si>
+  <si>
+    <t>stream4</t>
+  </si>
+  <si>
+    <t>stream1_staffGauge</t>
+  </si>
+  <si>
+    <t>stream2_staffGauge</t>
+  </si>
+  <si>
+    <t>stream3_staffGauge</t>
+  </si>
+  <si>
+    <t>stream4_staffGauge</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -849,7 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1232,7 +1231,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1248,37 +1247,37 @@
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="32">
         <v>1</v>
@@ -1304,11 +1303,11 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1334,11 +1333,11 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -1364,11 +1363,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1394,11 +1393,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1424,11 +1423,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1454,13 +1453,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8" s="34">
         <v>1</v>
@@ -1486,13 +1485,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="D9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="39">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
@@ -1516,44 +1515,44 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="D10" s="33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>2</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" s="32">
         <v>450</v>
@@ -1579,16 +1578,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>120</v>
@@ -1614,16 +1613,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>250</v>
@@ -1649,70 +1648,70 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I17" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1727,13 +1726,13 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1748,13 +1747,13 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1769,13 +1768,13 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1790,13 +1789,13 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1811,13 +1810,13 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1832,13 +1831,13 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1853,13 +1852,13 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1874,13 +1873,13 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1895,13 +1894,13 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1916,13 +1915,13 @@
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1937,13 +1936,13 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1958,13 +1957,13 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1979,13 +1978,13 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2000,13 +1999,13 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2021,13 +2020,13 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2042,13 +2041,13 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -2063,13 +2062,13 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2084,13 +2083,13 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2105,13 +2104,13 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2126,13 +2125,13 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2147,13 +2146,13 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2168,13 +2167,13 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2189,13 +2188,13 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2210,13 +2209,13 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2231,13 +2230,13 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
